--- a/TK/PSP/belezka_napak.xlsx
+++ b/TK/PSP/belezka_napak.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6EAA2D1E-922D-413C-96F1-3F7F7E4C5485}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List2" sheetId="2" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -42,46 +43,28 @@
     <t>Testiranje</t>
   </si>
   <si>
-    <t>Opis: Napačno zaporedje pri asList() za PV</t>
-  </si>
-  <si>
-    <t>Načrtovanje</t>
-  </si>
-  <si>
-    <t>Opis: Mankajoče prirejanje v merg() metodi</t>
-  </si>
-  <si>
-    <t>Pregled</t>
-  </si>
-  <si>
-    <t>Kodiranje P</t>
-  </si>
-  <si>
-    <t>Opis: Mankajoča opozoritev napake v removeFirst()</t>
-  </si>
-  <si>
-    <t>Opis: Napačen izračun velikosti</t>
-  </si>
-  <si>
-    <t>Opis: Napačno zaporedje pri asList() za BK pri 32 elementih</t>
-  </si>
-  <si>
-    <t>Opis: Napačno združevanje pri odstranjevanju elementa</t>
-  </si>
-  <si>
     <t>Beležka napak</t>
   </si>
   <si>
     <t>Ime: Simon Korošec</t>
   </si>
   <si>
-    <t>Datum začetka: 19.4.2018</t>
+    <t>Datum začetka: 28.05.2018</t>
+  </si>
+  <si>
+    <t>Opis: Napačno branje vrstice add</t>
+  </si>
+  <si>
+    <t>Opis: Napačno odstranjevanje pri Ime, Priimek (trim)</t>
+  </si>
+  <si>
+    <t>Opis: Narobe obrnen pogoj pri odločanju vrste iskanje</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -169,9 +152,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -188,6 +168,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -469,224 +452,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
     <col min="2" max="2" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="9"/>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="8"/>
     </row>
     <row r="7" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
-        <v>43209</v>
-      </c>
-      <c r="C8" s="7">
+      <c r="B8" s="5">
+        <v>43248</v>
+      </c>
+      <c r="C8" s="6">
         <v>1</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="5">
+        <v>43248</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="8">
-        <v>43209</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>43248</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6">
         <v>10</v>
       </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="8">
-        <v>43210</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1">
-        <v>5</v>
-      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
-        <v>43210</v>
-      </c>
-      <c r="C14" s="1">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="1">
-        <v>15</v>
-      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
-        <v>43210</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="1">
-        <v>20</v>
-      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
-        <v>43210</v>
-      </c>
-      <c r="C18" s="1">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F18" s="1">
-        <v>30</v>
-      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="B9:F9"/>
     <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
